--- a/table/lm/In.situ.TOU_env_lm.xlsx
+++ b/table/lm/In.situ.TOU_env_lm.xlsx
@@ -392,16 +392,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.59092151141024</v>
+        <v>15.5909</v>
       </c>
       <c r="C2">
-        <v>0.7891552643329081</v>
+        <v>0.7892</v>
       </c>
       <c r="D2">
-        <v>19.75646899420943</v>
+        <v>19.7565</v>
       </c>
       <c r="E2">
-        <v>9.027644739145762e-017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.473835776675526</v>
+        <v>1.4738</v>
       </c>
       <c r="C3">
-        <v>1.622851734756776</v>
+        <v>1.6229</v>
       </c>
       <c r="D3">
-        <v>0.9081764803957373</v>
+        <v>0.9082</v>
       </c>
       <c r="E3">
-        <v>0.3724569210940552</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1.024493084681273</v>
+        <v>-1.0245</v>
       </c>
       <c r="C4">
-        <v>0.9608363526942657</v>
+        <v>0.9608</v>
       </c>
       <c r="D4">
-        <v>-1.066251377571746</v>
+        <v>-1.0663</v>
       </c>
       <c r="E4">
-        <v>0.2964994639560761</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="5">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-3.687557483600674</v>
+        <v>-3.6876</v>
       </c>
       <c r="C5">
-        <v>1.307336668957649</v>
+        <v>1.3073</v>
       </c>
       <c r="D5">
-        <v>-2.820664004277335</v>
+        <v>-2.8207</v>
       </c>
       <c r="E5">
-        <v>0.0092496330135913</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="6">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-15.14452204158704</v>
+        <v>-15.1445</v>
       </c>
       <c r="C6">
-        <v>4.659551795338759</v>
+        <v>4.6596</v>
       </c>
       <c r="D6">
-        <v>-3.250210043106946</v>
+        <v>-3.2502</v>
       </c>
       <c r="E6">
-        <v>0.003284845672783999</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>7.107087005355772</v>
+        <v>7.1071</v>
       </c>
       <c r="C7">
-        <v>2.294876266747819</v>
+        <v>2.2949</v>
       </c>
       <c r="D7">
-        <v>3.096936906070134</v>
+        <v>3.0969</v>
       </c>
       <c r="E7">
-        <v>0.004777923650521472</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="8">
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>6.105860410463128</v>
+        <v>6.1059</v>
       </c>
       <c r="C8">
-        <v>2.359146116844306</v>
+        <v>2.3591</v>
       </c>
       <c r="D8">
-        <v>2.58816542428944</v>
+        <v>2.5882</v>
       </c>
       <c r="E8">
-        <v>0.01584698727068171</v>
+        <v>0.0158</v>
       </c>
     </row>
     <row r="9">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>12.82995709432337</v>
+        <v>12.83</v>
       </c>
       <c r="C9">
-        <v>4.065018706771278</v>
+        <v>4.065</v>
       </c>
       <c r="D9">
-        <v>3.15618648272195</v>
+        <v>3.1562</v>
       </c>
       <c r="E9">
-        <v>0.004136279721924337</v>
+        <v>0.0041</v>
       </c>
     </row>
   </sheetData>

--- a/table/lm/In.situ.TOU_env_lm.xlsx
+++ b/table/lm/In.situ.TOU_env_lm.xlsx
@@ -579,19 +579,19 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.7047279333082163</v>
+        <v>0.704727933308216</v>
       </c>
       <c r="B2">
-        <v>0.6220517546345168</v>
+        <v>0.6220517546345166</v>
       </c>
       <c r="C2">
-        <v>8.52395387176259</v>
+        <v>8.523953871762583</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2.474274425892546e-005</v>
+        <v>2.474274425892563e-05</v>
       </c>
     </row>
   </sheetData>
